--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2904.735833358005</v>
+        <v>3038.716758399322</v>
       </c>
       <c r="AB2" t="n">
-        <v>3974.387715101393</v>
+        <v>4157.706327564181</v>
       </c>
       <c r="AC2" t="n">
-        <v>3595.077729660158</v>
+        <v>3760.900671038779</v>
       </c>
       <c r="AD2" t="n">
-        <v>2904735.833358005</v>
+        <v>3038716.758399322</v>
       </c>
       <c r="AE2" t="n">
-        <v>3974387.715101393</v>
+        <v>4157706.327564181</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.645744491786684e-07</v>
+        <v>1.414662907603599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.87630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3595077.729660158</v>
+        <v>3760900.671038779</v>
       </c>
     </row>
     <row r="3">
@@ -3758,28 +3758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1374.937914476058</v>
+        <v>1460.221777917233</v>
       </c>
       <c r="AB3" t="n">
-        <v>1881.250712565903</v>
+        <v>1997.939856984634</v>
       </c>
       <c r="AC3" t="n">
-        <v>1701.706784910571</v>
+        <v>1807.259281160221</v>
       </c>
       <c r="AD3" t="n">
-        <v>1374937.914476058</v>
+        <v>1460221.777917233</v>
       </c>
       <c r="AE3" t="n">
-        <v>1881250.712565903</v>
+        <v>1997939.856984634</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.207783010694255e-06</v>
+        <v>2.234714784804024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.5830078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1701706.784910571</v>
+        <v>1807259.281160221</v>
       </c>
     </row>
     <row r="4">
@@ -3864,28 +3864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1118.196261255679</v>
+        <v>1179.174353832621</v>
       </c>
       <c r="AB4" t="n">
-        <v>1529.965455987436</v>
+        <v>1613.39837241479</v>
       </c>
       <c r="AC4" t="n">
-        <v>1383.947700187998</v>
+        <v>1459.417896170359</v>
       </c>
       <c r="AD4" t="n">
-        <v>1118196.261255679</v>
+        <v>1179174.353832621</v>
       </c>
       <c r="AE4" t="n">
-        <v>1529965.455987436</v>
+        <v>1613398.37241479</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37724236168452e-06</v>
+        <v>2.548258951039283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.03352864583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1383947.700187998</v>
+        <v>1459417.896170359</v>
       </c>
     </row>
     <row r="5">
@@ -3970,28 +3970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>995.8397047387372</v>
+        <v>1056.732456461107</v>
       </c>
       <c r="AB5" t="n">
-        <v>1362.551817370653</v>
+        <v>1445.86796667581</v>
       </c>
       <c r="AC5" t="n">
-        <v>1232.511784274284</v>
+        <v>1307.876357224706</v>
       </c>
       <c r="AD5" t="n">
-        <v>995839.7047387372</v>
+        <v>1056732.456461107</v>
       </c>
       <c r="AE5" t="n">
-        <v>1362551.817370653</v>
+        <v>1445867.96667581</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.470048199086352e-06</v>
+        <v>2.719974048140025e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.3369140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1232511.784274284</v>
+        <v>1307876.357224706</v>
       </c>
     </row>
     <row r="6">
@@ -4076,28 +4076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>920.5778748385113</v>
+        <v>993.5807968114372</v>
       </c>
       <c r="AB6" t="n">
-        <v>1259.575261383566</v>
+        <v>1359.461079888537</v>
       </c>
       <c r="AC6" t="n">
-        <v>1139.3631662621</v>
+        <v>1229.716022439584</v>
       </c>
       <c r="AD6" t="n">
-        <v>920577.8748385113</v>
+        <v>993580.7968114371</v>
       </c>
       <c r="AE6" t="n">
-        <v>1259575.261383566</v>
+        <v>1359461.079888537</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.526628015450044e-06</v>
+        <v>2.824661521825185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.954427083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1139363.1662621</v>
+        <v>1229716.022439584</v>
       </c>
     </row>
     <row r="7">
@@ -4182,28 +4182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>875.1164605872553</v>
+        <v>936.0944636556462</v>
       </c>
       <c r="AB7" t="n">
-        <v>1197.37294878895</v>
+        <v>1280.805742746756</v>
       </c>
       <c r="AC7" t="n">
-        <v>1083.09735508002</v>
+        <v>1158.567440281155</v>
       </c>
       <c r="AD7" t="n">
-        <v>875116.4605872553</v>
+        <v>936094.4636556462</v>
       </c>
       <c r="AE7" t="n">
-        <v>1197372.94878895</v>
+        <v>1280805.742746756</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.566215213697907e-06</v>
+        <v>2.89790820308345e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.7021484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1083097.35508002</v>
+        <v>1158567.440281155</v>
       </c>
     </row>
     <row r="8">
@@ -4288,28 +4288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>839.4844108539806</v>
+        <v>900.4624139223716</v>
       </c>
       <c r="AB8" t="n">
-        <v>1148.619606368794</v>
+        <v>1232.0524003266</v>
       </c>
       <c r="AC8" t="n">
-        <v>1038.996963234698</v>
+        <v>1114.467048435833</v>
       </c>
       <c r="AD8" t="n">
-        <v>839484.4108539807</v>
+        <v>900462.4139223717</v>
       </c>
       <c r="AE8" t="n">
-        <v>1148619.606368794</v>
+        <v>1232052.4003266</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.594878586014167e-06</v>
+        <v>2.950942946352995e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.527994791666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1038996.963234698</v>
+        <v>1114467.048435833</v>
       </c>
     </row>
     <row r="9">
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>807.656139367167</v>
+        <v>868.4635502349656</v>
       </c>
       <c r="AB9" t="n">
-        <v>1105.070761156298</v>
+        <v>1188.270143339257</v>
       </c>
       <c r="AC9" t="n">
-        <v>999.6043586880949</v>
+        <v>1074.863308606578</v>
       </c>
       <c r="AD9" t="n">
-        <v>807656.139367167</v>
+        <v>868463.5502349656</v>
       </c>
       <c r="AE9" t="n">
-        <v>1105070.761156298</v>
+        <v>1188270.143339257</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.616819603910978e-06</v>
+        <v>2.991539573937174e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.3994140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>999604.3586880949</v>
+        <v>1074863.308606578</v>
       </c>
     </row>
     <row r="10">
@@ -4500,28 +4500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>781.8272516842585</v>
+        <v>842.6346625520571</v>
       </c>
       <c r="AB10" t="n">
-        <v>1069.730537538439</v>
+        <v>1152.929919721398</v>
       </c>
       <c r="AC10" t="n">
-        <v>967.6369564120092</v>
+        <v>1042.895906330493</v>
       </c>
       <c r="AD10" t="n">
-        <v>781827.2516842585</v>
+        <v>842634.6625520571</v>
       </c>
       <c r="AE10" t="n">
-        <v>1069730.53753844</v>
+        <v>1152929.919721398</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.6336254899596e-06</v>
+        <v>3.022634863150589e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.3017578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>967636.9564120092</v>
+        <v>1042895.906330493</v>
       </c>
     </row>
     <row r="11">
@@ -4606,28 +4606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>758.6779945426548</v>
+        <v>807.4604865059184</v>
       </c>
       <c r="AB11" t="n">
-        <v>1038.05670264415</v>
+        <v>1104.803060279943</v>
       </c>
       <c r="AC11" t="n">
-        <v>938.9860278655242</v>
+        <v>999.3622068076583</v>
       </c>
       <c r="AD11" t="n">
-        <v>758677.9945426548</v>
+        <v>807460.4865059184</v>
       </c>
       <c r="AE11" t="n">
-        <v>1038056.70264415</v>
+        <v>1104803.060279943</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.646510002596876e-06</v>
+        <v>3.046474584880872e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.230143229166666</v>
       </c>
       <c r="AH11" t="n">
-        <v>938986.0278655242</v>
+        <v>999362.2068076583</v>
       </c>
     </row>
     <row r="12">
@@ -4712,28 +4712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>753.6025451881312</v>
+        <v>802.3850371513951</v>
       </c>
       <c r="AB12" t="n">
-        <v>1031.112248924268</v>
+        <v>1097.858606560061</v>
       </c>
       <c r="AC12" t="n">
-        <v>932.7043430620662</v>
+        <v>993.0805220042002</v>
       </c>
       <c r="AD12" t="n">
-        <v>753602.5451881312</v>
+        <v>802385.0371513951</v>
       </c>
       <c r="AE12" t="n">
-        <v>1031112.248924268</v>
+        <v>1097858.606560061</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.649404349638583e-06</v>
+        <v>3.051829884689849e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.2138671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>932704.3430620662</v>
+        <v>993080.5220042003</v>
       </c>
     </row>
     <row r="13">
@@ -4818,28 +4818,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>757.8203802454324</v>
+        <v>806.6028722086962</v>
       </c>
       <c r="AB13" t="n">
-        <v>1036.883276927418</v>
+        <v>1103.629634563211</v>
       </c>
       <c r="AC13" t="n">
-        <v>937.9245922522836</v>
+        <v>998.3007711944178</v>
       </c>
       <c r="AD13" t="n">
-        <v>757820.3802454324</v>
+        <v>806602.8722086962</v>
       </c>
       <c r="AE13" t="n">
-        <v>1036883.276927418</v>
+        <v>1103629.634563211</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.648844153436962e-06</v>
+        <v>3.050793375049402e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.215494791666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>937924.5922522836</v>
+        <v>998300.7711944178</v>
       </c>
     </row>
   </sheetData>
@@ -5115,28 +5115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2009.306228490799</v>
+        <v>2115.094296830683</v>
       </c>
       <c r="AB2" t="n">
-        <v>2749.221426155709</v>
+        <v>2893.96532829853</v>
       </c>
       <c r="AC2" t="n">
-        <v>2486.839591799913</v>
+        <v>2617.769339071566</v>
       </c>
       <c r="AD2" t="n">
-        <v>2009306.228490799</v>
+        <v>2115094.296830683</v>
       </c>
       <c r="AE2" t="n">
-        <v>2749221.426155709</v>
+        <v>2893965.32829853</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.38911101265959e-07</v>
+        <v>1.789709463415273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.7431640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2486839.591799913</v>
+        <v>2617769.339071566</v>
       </c>
     </row>
     <row r="3">
@@ -5221,28 +5221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1097.951192876947</v>
+        <v>1168.533465673251</v>
       </c>
       <c r="AB3" t="n">
-        <v>1502.265260282273</v>
+        <v>1598.839039792286</v>
       </c>
       <c r="AC3" t="n">
-        <v>1358.891172283468</v>
+        <v>1446.248085819195</v>
       </c>
       <c r="AD3" t="n">
-        <v>1097951.192876947</v>
+        <v>1168533.465673251</v>
       </c>
       <c r="AE3" t="n">
-        <v>1502265.260282273</v>
+        <v>1598839.039792286</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.351429290084693e-06</v>
+        <v>2.576032796225337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.63248697916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1358891.172283468</v>
+        <v>1446248.085819195</v>
       </c>
     </row>
     <row r="4">
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>916.0801333084056</v>
+        <v>974.8134426259711</v>
       </c>
       <c r="AB4" t="n">
-        <v>1253.421252995723</v>
+        <v>1333.782757934751</v>
       </c>
       <c r="AC4" t="n">
-        <v>1133.796487797588</v>
+        <v>1206.488403493315</v>
       </c>
       <c r="AD4" t="n">
-        <v>916080.1333084056</v>
+        <v>974813.4426259712</v>
       </c>
       <c r="AE4" t="n">
-        <v>1253421.252995723</v>
+        <v>1333782.757934751</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.503358840778176e-06</v>
+        <v>2.865633967499097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1133796.487797588</v>
+        <v>1206488.403493315</v>
       </c>
     </row>
     <row r="5">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>820.6263063421169</v>
+        <v>891.0378974292771</v>
       </c>
       <c r="AB5" t="n">
-        <v>1122.817115814807</v>
+        <v>1219.157361080424</v>
       </c>
       <c r="AC5" t="n">
-        <v>1015.657026165161</v>
+        <v>1102.802693637011</v>
       </c>
       <c r="AD5" t="n">
-        <v>820626.3063421169</v>
+        <v>891037.8974292771</v>
       </c>
       <c r="AE5" t="n">
-        <v>1122817.115814808</v>
+        <v>1219157.361080424</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.58516706038236e-06</v>
+        <v>3.021573059723429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.9169921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1015657.026165161</v>
+        <v>1102802.693637011</v>
       </c>
     </row>
     <row r="6">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>767.8041644153892</v>
+        <v>826.6227250789753</v>
       </c>
       <c r="AB6" t="n">
-        <v>1050.543530882225</v>
+        <v>1131.021680473902</v>
       </c>
       <c r="AC6" t="n">
-        <v>950.2811307419306</v>
+        <v>1023.07855868837</v>
       </c>
       <c r="AD6" t="n">
-        <v>767804.1644153892</v>
+        <v>826622.7250789753</v>
       </c>
       <c r="AE6" t="n">
-        <v>1050543.530882225</v>
+        <v>1131021.680473902</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.636164392083669e-06</v>
+        <v>3.11878184448665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.607747395833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>950281.1307419306</v>
+        <v>1023078.55868837</v>
       </c>
     </row>
     <row r="7">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>725.7922927394284</v>
+        <v>784.4402612024224</v>
       </c>
       <c r="AB7" t="n">
-        <v>993.0610346222054</v>
+        <v>1073.305772439035</v>
       </c>
       <c r="AC7" t="n">
-        <v>898.2846832477773</v>
+        <v>970.8709759115657</v>
       </c>
       <c r="AD7" t="n">
-        <v>725792.2927394283</v>
+        <v>784440.2612024224</v>
       </c>
       <c r="AE7" t="n">
-        <v>993061.0346222054</v>
+        <v>1073305.772439035</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.669583098084905e-06</v>
+        <v>3.182483055714063e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.415690104166666</v>
       </c>
       <c r="AH7" t="n">
-        <v>898284.6832477773</v>
+        <v>970870.9759115657</v>
       </c>
     </row>
     <row r="8">
@@ -5751,28 +5751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>693.2511673293267</v>
+        <v>751.8991357923207</v>
       </c>
       <c r="AB8" t="n">
-        <v>948.536831222972</v>
+        <v>1028.781569039802</v>
       </c>
       <c r="AC8" t="n">
-        <v>858.0098073308546</v>
+        <v>930.5960999946431</v>
       </c>
       <c r="AD8" t="n">
-        <v>693251.1673293266</v>
+        <v>751899.1357923207</v>
       </c>
       <c r="AE8" t="n">
-        <v>948536.8312229719</v>
+        <v>1028781.569039802</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.693536390247642e-06</v>
+        <v>3.228141727345273e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.2822265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>858009.8073308546</v>
+        <v>930596.099994643</v>
       </c>
     </row>
     <row r="9">
@@ -5857,28 +5857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>687.6220388546496</v>
+        <v>746.2700073176437</v>
       </c>
       <c r="AB9" t="n">
-        <v>940.8348093042973</v>
+        <v>1021.079547121127</v>
       </c>
       <c r="AC9" t="n">
-        <v>851.0428555742429</v>
+        <v>923.6291482380312</v>
       </c>
       <c r="AD9" t="n">
-        <v>687622.0388546496</v>
+        <v>746270.0073176437</v>
       </c>
       <c r="AE9" t="n">
-        <v>940834.8093042973</v>
+        <v>1021079.547121127</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.698269097166892e-06</v>
+        <v>3.237162997143375e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.256184895833334</v>
       </c>
       <c r="AH9" t="n">
-        <v>851042.8555742429</v>
+        <v>923629.1482380312</v>
       </c>
     </row>
     <row r="10">
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>690.8521922845887</v>
+        <v>749.5001607475828</v>
       </c>
       <c r="AB10" t="n">
-        <v>945.2544477314518</v>
+        <v>1025.499185548282</v>
       </c>
       <c r="AC10" t="n">
-        <v>855.040689912911</v>
+        <v>927.6269825766996</v>
       </c>
       <c r="AD10" t="n">
-        <v>690852.1922845887</v>
+        <v>749500.1607475828</v>
       </c>
       <c r="AE10" t="n">
-        <v>945254.4477314518</v>
+        <v>1025499.185548282</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.698365683022386e-06</v>
+        <v>3.237347104690274e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.256184895833334</v>
       </c>
       <c r="AH10" t="n">
-        <v>855040.689912911</v>
+        <v>927626.9825766996</v>
       </c>
     </row>
   </sheetData>
@@ -6260,28 +6260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>783.0352426374214</v>
+        <v>845.815897584567</v>
       </c>
       <c r="AB2" t="n">
-        <v>1071.383364053357</v>
+        <v>1157.282625839063</v>
       </c>
       <c r="AC2" t="n">
-        <v>969.1320394840992</v>
+        <v>1046.833196285348</v>
       </c>
       <c r="AD2" t="n">
-        <v>783035.2426374215</v>
+        <v>845815.897584567</v>
       </c>
       <c r="AE2" t="n">
-        <v>1071383.364053357</v>
+        <v>1157282.625839063</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501100567048618e-06</v>
+        <v>3.196951365390528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.68619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>969132.0394840993</v>
+        <v>1046833.196285348</v>
       </c>
     </row>
     <row r="3">
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>544.6682258642571</v>
+        <v>596.9854383202116</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.2390956937162</v>
+        <v>816.821813848471</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.1145223503472</v>
+        <v>738.8654863513882</v>
       </c>
       <c r="AD3" t="n">
-        <v>544668.2258642571</v>
+        <v>596985.4383202116</v>
       </c>
       <c r="AE3" t="n">
-        <v>745239.0956937162</v>
+        <v>816821.813848471</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793927264397203e-06</v>
+        <v>3.820595597137086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>674114.5223503473</v>
+        <v>738865.4863513882</v>
       </c>
     </row>
     <row r="4">
@@ -6472,28 +6472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>528.381710675272</v>
+        <v>580.6989231312264</v>
       </c>
       <c r="AB4" t="n">
-        <v>722.9551671018065</v>
+        <v>794.5378852565613</v>
       </c>
       <c r="AC4" t="n">
-        <v>653.957340627559</v>
+        <v>718.7083046285999</v>
       </c>
       <c r="AD4" t="n">
-        <v>528381.7106752719</v>
+        <v>580698.9231312263</v>
       </c>
       <c r="AE4" t="n">
-        <v>722955.1671018065</v>
+        <v>794537.8852565612</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.820655648991407e-06</v>
+        <v>3.877520061426061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>653957.340627559</v>
+        <v>718708.3046285999</v>
       </c>
     </row>
   </sheetData>
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1124.481864496452</v>
+        <v>1190.312730282205</v>
       </c>
       <c r="AB2" t="n">
-        <v>1538.565695642705</v>
+        <v>1628.638390463599</v>
       </c>
       <c r="AC2" t="n">
-        <v>1391.727145041081</v>
+        <v>1473.20342828609</v>
       </c>
       <c r="AD2" t="n">
-        <v>1124481.864496452</v>
+        <v>1190312.730282205</v>
       </c>
       <c r="AE2" t="n">
-        <v>1538565.695642705</v>
+        <v>1628638.390463599</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.274076327011998e-06</v>
+        <v>2.586815432360732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17220052083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1391727.145041081</v>
+        <v>1473203.42828609</v>
       </c>
     </row>
     <row r="3">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>734.1226256581477</v>
+        <v>788.896354543129</v>
       </c>
       <c r="AB3" t="n">
-        <v>1004.458963629948</v>
+        <v>1079.402795936754</v>
       </c>
       <c r="AC3" t="n">
-        <v>908.5948099081149</v>
+        <v>976.3861080438883</v>
       </c>
       <c r="AD3" t="n">
-        <v>734122.6256581477</v>
+        <v>788896.354543129</v>
       </c>
       <c r="AE3" t="n">
-        <v>1004458.963629948</v>
+        <v>1079402.795936754</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.618036724107735e-06</v>
+        <v>3.285173956464916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.37109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>908594.809908115</v>
+        <v>976386.1080438882</v>
       </c>
     </row>
     <row r="4">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>621.2546147551669</v>
+        <v>676.1135949861684</v>
       </c>
       <c r="AB4" t="n">
-        <v>850.0279717272762</v>
+        <v>925.0884486867308</v>
       </c>
       <c r="AC4" t="n">
-        <v>768.9024951273753</v>
+        <v>836.7993055138608</v>
       </c>
       <c r="AD4" t="n">
-        <v>621254.6147551669</v>
+        <v>676113.5949861684</v>
       </c>
       <c r="AE4" t="n">
-        <v>850027.9717272762</v>
+        <v>925088.4486867308</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.740732429306754e-06</v>
+        <v>3.534288657809034e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.640299479166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>768902.4951273754</v>
+        <v>836799.3055138608</v>
       </c>
     </row>
     <row r="5">
@@ -7087,28 +7087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>582.4887860724639</v>
+        <v>637.1771741028733</v>
       </c>
       <c r="AB5" t="n">
-        <v>796.9868546959423</v>
+        <v>871.81391988055</v>
       </c>
       <c r="AC5" t="n">
-        <v>720.9235478618367</v>
+        <v>788.6092229656711</v>
       </c>
       <c r="AD5" t="n">
-        <v>582488.7860724638</v>
+        <v>637177.1741028733</v>
       </c>
       <c r="AE5" t="n">
-        <v>796986.8546959423</v>
+        <v>871813.91988055</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.781562260616679e-06</v>
+        <v>3.617187331533632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.420572916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>720923.5478618367</v>
+        <v>788609.2229656711</v>
       </c>
     </row>
     <row r="6">
@@ -7193,28 +7193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>586.7374295974092</v>
+        <v>641.4258176278188</v>
       </c>
       <c r="AB6" t="n">
-        <v>802.8000362036964</v>
+        <v>877.627101388304</v>
       </c>
       <c r="AC6" t="n">
-        <v>726.1819274853422</v>
+        <v>793.8676025891765</v>
       </c>
       <c r="AD6" t="n">
-        <v>586737.4295974092</v>
+        <v>641425.8176278188</v>
       </c>
       <c r="AE6" t="n">
-        <v>802800.0362036964</v>
+        <v>877627.101388304</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.780840521174332e-06</v>
+        <v>3.615721950937491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.423828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>726181.9274853421</v>
+        <v>793867.6025891765</v>
       </c>
     </row>
   </sheetData>
@@ -7490,28 +7490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.3950581606147</v>
+        <v>631.5886470880039</v>
       </c>
       <c r="AB2" t="n">
-        <v>781.8079267462165</v>
+        <v>864.1674506703945</v>
       </c>
       <c r="AC2" t="n">
-        <v>707.1932754918735</v>
+        <v>781.6925220450458</v>
       </c>
       <c r="AD2" t="n">
-        <v>571395.0581606147</v>
+        <v>631588.6470880039</v>
       </c>
       <c r="AE2" t="n">
-        <v>781807.9267462165</v>
+        <v>864167.4506703945</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700727915820683e-06</v>
+        <v>3.787188875483328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.712890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>707193.2754918735</v>
+        <v>781692.5220450459</v>
       </c>
     </row>
     <row r="3">
@@ -7596,28 +7596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.9671721150239</v>
+        <v>546.0754201878416</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.9217242462962</v>
+        <v>747.1644810482765</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.4625281077302</v>
+        <v>675.8561516289636</v>
       </c>
       <c r="AD3" t="n">
-        <v>485967.1721150239</v>
+        <v>546075.4201878416</v>
       </c>
       <c r="AE3" t="n">
-        <v>664921.7242462962</v>
+        <v>747164.4810482764</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.830795431825924e-06</v>
+        <v>4.076823828314157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.951171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>601462.5281077302</v>
+        <v>675856.1516289636</v>
       </c>
     </row>
   </sheetData>
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2211.065292897455</v>
+        <v>2317.78977364519</v>
       </c>
       <c r="AB2" t="n">
-        <v>3025.277079058791</v>
+        <v>3171.302221969642</v>
       </c>
       <c r="AC2" t="n">
-        <v>2736.548880636354</v>
+        <v>2868.637588855363</v>
       </c>
       <c r="AD2" t="n">
-        <v>2211065.292897455</v>
+        <v>2317789.77364519</v>
       </c>
       <c r="AE2" t="n">
-        <v>3025277.079058791</v>
+        <v>3171302.221969642</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.915196099139739e-07</v>
+        <v>1.685652888290138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2736548.880636354</v>
+        <v>2868637.588855362</v>
       </c>
     </row>
     <row r="3">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1162.642336165236</v>
+        <v>1233.905718130787</v>
       </c>
       <c r="AB3" t="n">
-        <v>1590.778536501129</v>
+        <v>1688.284239624921</v>
       </c>
       <c r="AC3" t="n">
-        <v>1438.956865649159</v>
+        <v>1527.156761316931</v>
       </c>
       <c r="AD3" t="n">
-        <v>1162642.336165236</v>
+        <v>1233905.718130787</v>
       </c>
       <c r="AE3" t="n">
-        <v>1590778.536501129</v>
+        <v>1688284.239624921</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312584111096234e-06</v>
+        <v>2.481786349272349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.86848958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1438956.865649159</v>
+        <v>1527156.761316931</v>
       </c>
     </row>
     <row r="4">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>961.0335026163715</v>
+        <v>1032.211543727351</v>
       </c>
       <c r="AB4" t="n">
-        <v>1314.928436085569</v>
+        <v>1412.317372087163</v>
       </c>
       <c r="AC4" t="n">
-        <v>1189.433511659212</v>
+        <v>1277.527784295045</v>
       </c>
       <c r="AD4" t="n">
-        <v>961033.5026163715</v>
+        <v>1032211.543727351</v>
       </c>
       <c r="AE4" t="n">
-        <v>1314928.436085569</v>
+        <v>1412317.372087163</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471093502766573e-06</v>
+        <v>2.781490148178133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5908203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1189433.511659212</v>
+        <v>1277527.784295045</v>
       </c>
     </row>
     <row r="5">
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>873.465519158124</v>
+        <v>932.7664194500627</v>
       </c>
       <c r="AB5" t="n">
-        <v>1195.114057891217</v>
+        <v>1276.252165841728</v>
       </c>
       <c r="AC5" t="n">
-        <v>1081.054049559194</v>
+        <v>1154.448450364958</v>
       </c>
       <c r="AD5" t="n">
-        <v>873465.519158124</v>
+        <v>932766.4194500627</v>
       </c>
       <c r="AE5" t="n">
-        <v>1195114.057891217</v>
+        <v>1276252.165841728</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555038391954307e-06</v>
+        <v>2.94021009482087e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.01790364583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1081054.049559194</v>
+        <v>1154448.450364958</v>
       </c>
     </row>
     <row r="6">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>805.3698624313628</v>
+        <v>864.7560140693221</v>
       </c>
       <c r="AB6" t="n">
-        <v>1101.942576189311</v>
+        <v>1183.197328792471</v>
       </c>
       <c r="AC6" t="n">
-        <v>996.7747233039216</v>
+        <v>1070.274636360398</v>
       </c>
       <c r="AD6" t="n">
-        <v>805369.8624313627</v>
+        <v>864756.014069322</v>
       </c>
       <c r="AE6" t="n">
-        <v>1101942.576189311</v>
+        <v>1183197.328792471</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.607874855844421e-06</v>
+        <v>3.040111361122797e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.689127604166666</v>
       </c>
       <c r="AH6" t="n">
-        <v>996774.7233039216</v>
+        <v>1070274.636360398</v>
       </c>
     </row>
     <row r="7">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>764.482544402621</v>
+        <v>823.6981038399882</v>
       </c>
       <c r="AB7" t="n">
-        <v>1045.998743841223</v>
+        <v>1127.020084669536</v>
       </c>
       <c r="AC7" t="n">
-        <v>946.170091797473</v>
+        <v>1019.458869571298</v>
       </c>
       <c r="AD7" t="n">
-        <v>764482.544402621</v>
+        <v>823698.1038399882</v>
       </c>
       <c r="AE7" t="n">
-        <v>1045998.743841223</v>
+        <v>1127020.084669536</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.641376236934166e-06</v>
+        <v>3.103454555335976e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>946170.091797473</v>
+        <v>1019458.869571298</v>
       </c>
     </row>
     <row r="8">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>727.054757856438</v>
+        <v>786.2703172938051</v>
       </c>
       <c r="AB8" t="n">
-        <v>994.7883950913283</v>
+        <v>1075.809735919642</v>
       </c>
       <c r="AC8" t="n">
-        <v>899.8471868580924</v>
+        <v>973.1359646319179</v>
       </c>
       <c r="AD8" t="n">
-        <v>727054.7578564379</v>
+        <v>786270.3172938051</v>
       </c>
       <c r="AE8" t="n">
-        <v>994788.3950913283</v>
+        <v>1075809.735919642</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.670283142903032e-06</v>
+        <v>3.158110682914205e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.327799479166666</v>
       </c>
       <c r="AH8" t="n">
-        <v>899847.1868580924</v>
+        <v>973135.9646319179</v>
       </c>
     </row>
     <row r="9">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>704.5179316330323</v>
+        <v>763.7334910703994</v>
       </c>
       <c r="AB9" t="n">
-        <v>963.9525151978627</v>
+        <v>1044.973856026176</v>
       </c>
       <c r="AC9" t="n">
-        <v>871.9542400632301</v>
+        <v>945.2430178370555</v>
       </c>
       <c r="AD9" t="n">
-        <v>704517.9316330323</v>
+        <v>763733.4910703994</v>
       </c>
       <c r="AE9" t="n">
-        <v>963952.5151978626</v>
+        <v>1044973.856026176</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.68483231411915e-06</v>
+        <v>3.185619727258214e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.246419270833334</v>
       </c>
       <c r="AH9" t="n">
-        <v>871954.2400632302</v>
+        <v>945243.0178370555</v>
       </c>
     </row>
     <row r="10">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>704.5840270467249</v>
+        <v>752.0930378656434</v>
       </c>
       <c r="AB10" t="n">
-        <v>964.0429498588007</v>
+        <v>1029.046874410878</v>
       </c>
       <c r="AC10" t="n">
-        <v>872.0360437670543</v>
+        <v>930.8360849934619</v>
       </c>
       <c r="AD10" t="n">
-        <v>704584.0270467249</v>
+        <v>752093.0378656434</v>
       </c>
       <c r="AE10" t="n">
-        <v>964042.9498588007</v>
+        <v>1029046.874410878</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.687225269911275e-06</v>
+        <v>3.190144241130584e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.2333984375</v>
       </c>
       <c r="AH10" t="n">
-        <v>872036.0437670542</v>
+        <v>930836.0849934618</v>
       </c>
     </row>
   </sheetData>
@@ -9038,28 +9038,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>477.7483245959352</v>
+        <v>526.6610181739085</v>
       </c>
       <c r="AB2" t="n">
-        <v>653.6763344807169</v>
+        <v>720.6008397098453</v>
       </c>
       <c r="AC2" t="n">
-        <v>591.2903825583742</v>
+        <v>651.8277069375675</v>
       </c>
       <c r="AD2" t="n">
-        <v>477748.3245959352</v>
+        <v>526661.0181739085</v>
       </c>
       <c r="AE2" t="n">
-        <v>653676.334480717</v>
+        <v>720600.8397098454</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.80762113013986e-06</v>
+        <v>4.144092096274014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.31412760416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>591290.3825583742</v>
+        <v>651827.7069375676</v>
       </c>
     </row>
     <row r="3">
@@ -9144,28 +9144,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.6978220524168</v>
+        <v>523.6105156303901</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.502502322001</v>
+        <v>716.4270075511292</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.5148950828756</v>
+        <v>648.052219462069</v>
       </c>
       <c r="AD3" t="n">
-        <v>474697.8220524167</v>
+        <v>523610.51563039</v>
       </c>
       <c r="AE3" t="n">
-        <v>649502.5023220009</v>
+        <v>716427.0075511292</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.821367298429897e-06</v>
+        <v>4.175606104610698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.23600260416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>587514.8950828756</v>
+        <v>648052.2194620691</v>
       </c>
     </row>
   </sheetData>
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1515.571063803336</v>
+        <v>1606.648048282021</v>
       </c>
       <c r="AB2" t="n">
-        <v>2073.671191772157</v>
+        <v>2198.286739968869</v>
       </c>
       <c r="AC2" t="n">
-        <v>1875.762923645219</v>
+        <v>1988.485338821057</v>
       </c>
       <c r="AD2" t="n">
-        <v>1515571.063803336</v>
+        <v>1606648.048282021</v>
       </c>
       <c r="AE2" t="n">
-        <v>2073671.191772157</v>
+        <v>2198286.739968869</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.091661563991356e-06</v>
+        <v>2.139641578732095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.83723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1875762.923645219</v>
+        <v>1988485.338821057</v>
       </c>
     </row>
     <row r="3">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>907.8933363280255</v>
+        <v>976.1797394733959</v>
       </c>
       <c r="AB3" t="n">
-        <v>1242.219716191175</v>
+        <v>1335.65218555816</v>
       </c>
       <c r="AC3" t="n">
-        <v>1123.66400994421</v>
+        <v>1208.179415568105</v>
       </c>
       <c r="AD3" t="n">
-        <v>907893.3363280254</v>
+        <v>976179.7394733959</v>
       </c>
       <c r="AE3" t="n">
-        <v>1242219.716191175</v>
+        <v>1335652.18555816</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.473394814626802e-06</v>
+        <v>2.88783347444917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.99283854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1123664.00994421</v>
+        <v>1208179.415568104</v>
       </c>
     </row>
     <row r="4">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>775.2950032413446</v>
+        <v>832.1862052286091</v>
       </c>
       <c r="AB4" t="n">
-        <v>1060.792827036382</v>
+        <v>1138.633879458052</v>
       </c>
       <c r="AC4" t="n">
-        <v>959.5522484561128</v>
+        <v>1029.964260085261</v>
       </c>
       <c r="AD4" t="n">
-        <v>775295.0032413446</v>
+        <v>832186.205228609</v>
       </c>
       <c r="AE4" t="n">
-        <v>1060792.827036382</v>
+        <v>1138633.879458052</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.613708652842646e-06</v>
+        <v>3.162846658224216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.03743489583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>959552.2484561128</v>
+        <v>1029964.260085261</v>
       </c>
     </row>
     <row r="5">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>695.7146748553459</v>
+        <v>752.6911281886311</v>
       </c>
       <c r="AB5" t="n">
-        <v>951.9075109023531</v>
+        <v>1029.865207976672</v>
       </c>
       <c r="AC5" t="n">
-        <v>861.0587940724142</v>
+        <v>931.5763179522752</v>
       </c>
       <c r="AD5" t="n">
-        <v>695714.674855346</v>
+        <v>752691.128188631</v>
       </c>
       <c r="AE5" t="n">
-        <v>951907.5109023531</v>
+        <v>1029865.207976672</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.685756325798867e-06</v>
+        <v>3.304059101524311e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.607747395833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>861058.7940724143</v>
+        <v>931576.3179522752</v>
       </c>
     </row>
     <row r="6">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>646.7297252501162</v>
+        <v>703.535586382809</v>
       </c>
       <c r="AB6" t="n">
-        <v>884.8841417890214</v>
+        <v>962.6084270884933</v>
       </c>
       <c r="AC6" t="n">
-        <v>800.4320412393696</v>
+        <v>870.7384298365795</v>
       </c>
       <c r="AD6" t="n">
-        <v>646729.7252501162</v>
+        <v>703535.586382809</v>
       </c>
       <c r="AE6" t="n">
-        <v>884884.1417890214</v>
+        <v>962608.4270884932</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.728945124228425e-06</v>
+        <v>3.388708549579893e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.368489583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>800432.0412393695</v>
+        <v>870738.4298365795</v>
       </c>
     </row>
     <row r="7">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>636.5559932988394</v>
+        <v>693.3618544315324</v>
       </c>
       <c r="AB7" t="n">
-        <v>870.963992899908</v>
+        <v>948.6882781993799</v>
       </c>
       <c r="AC7" t="n">
-        <v>787.8404118231815</v>
+        <v>858.1468004203914</v>
       </c>
       <c r="AD7" t="n">
-        <v>636555.9932988394</v>
+        <v>693361.8544315323</v>
       </c>
       <c r="AE7" t="n">
-        <v>870963.992899908</v>
+        <v>948688.2781993798</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.738896460272101e-06</v>
+        <v>3.40821303069869e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.314778645833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>787840.4118231816</v>
+        <v>858146.8004203914</v>
       </c>
     </row>
     <row r="8">
@@ -10077,28 +10077,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>639.4661849060915</v>
+        <v>696.2720460387842</v>
       </c>
       <c r="AB8" t="n">
-        <v>874.9458454455425</v>
+        <v>952.6701307450144</v>
       </c>
       <c r="AC8" t="n">
-        <v>791.4422419504259</v>
+        <v>861.7486305476356</v>
       </c>
       <c r="AD8" t="n">
-        <v>639466.1849060915</v>
+        <v>696272.0460387842</v>
       </c>
       <c r="AE8" t="n">
-        <v>874945.8454455426</v>
+        <v>952670.1307450144</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.739394027074285e-06</v>
+        <v>3.40918825475463e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.3115234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>791442.2419504259</v>
+        <v>861748.6305476356</v>
       </c>
     </row>
   </sheetData>
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1839.909172007056</v>
+        <v>1932.990938789072</v>
       </c>
       <c r="AB2" t="n">
-        <v>2517.444900203957</v>
+        <v>2644.803479992841</v>
       </c>
       <c r="AC2" t="n">
-        <v>2277.183492184599</v>
+        <v>2392.387147867321</v>
       </c>
       <c r="AD2" t="n">
-        <v>1839909.172007056</v>
+        <v>1932990.938789072</v>
       </c>
       <c r="AE2" t="n">
-        <v>2517444.900203957</v>
+        <v>2644803.479992841</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.873180842058981e-07</v>
+        <v>1.898319522664535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.07421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2277183.492184599</v>
+        <v>2392387.147867322</v>
       </c>
     </row>
     <row r="3">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1036.298178061423</v>
+        <v>1106.002849456858</v>
       </c>
       <c r="AB3" t="n">
-        <v>1417.908885472624</v>
+        <v>1513.281892028927</v>
       </c>
       <c r="AC3" t="n">
-        <v>1282.585651490735</v>
+        <v>1368.85639215816</v>
       </c>
       <c r="AD3" t="n">
-        <v>1036298.178061423</v>
+        <v>1106002.849456859</v>
       </c>
       <c r="AE3" t="n">
-        <v>1417908.885472624</v>
+        <v>1513281.892028927</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.391274120435904e-06</v>
+        <v>2.675007038208597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1282585.651490735</v>
+        <v>1368856.39215816</v>
       </c>
     </row>
     <row r="4">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>868.606746454665</v>
+        <v>926.7508814386673</v>
       </c>
       <c r="AB4" t="n">
-        <v>1188.466070724421</v>
+        <v>1268.02144134773</v>
       </c>
       <c r="AC4" t="n">
-        <v>1075.040536957088</v>
+        <v>1147.003254664772</v>
       </c>
       <c r="AD4" t="n">
-        <v>868606.746454665</v>
+        <v>926750.8814386673</v>
       </c>
       <c r="AE4" t="n">
-        <v>1188466.070724421</v>
+        <v>1268021.44134773</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.539479086660767e-06</v>
+        <v>2.959961183423894e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.30924479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1075040.536957088</v>
+        <v>1147003.254664772</v>
       </c>
     </row>
     <row r="5">
@@ -10692,28 +10692,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>779.1885228112394</v>
+        <v>837.4179091412623</v>
       </c>
       <c r="AB5" t="n">
-        <v>1066.120112281873</v>
+        <v>1145.792127557831</v>
       </c>
       <c r="AC5" t="n">
-        <v>964.3711050746656</v>
+        <v>1036.439335033062</v>
       </c>
       <c r="AD5" t="n">
-        <v>779188.5228112394</v>
+        <v>837417.9091412623</v>
       </c>
       <c r="AE5" t="n">
-        <v>1066120.112281873</v>
+        <v>1145792.127557831</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.618456733135858e-06</v>
+        <v>3.111811747650466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.806315104166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>964371.1050746656</v>
+        <v>1036439.335033062</v>
       </c>
     </row>
     <row r="6">
@@ -10798,28 +10798,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>727.4065989668857</v>
+        <v>785.6359852969086</v>
       </c>
       <c r="AB6" t="n">
-        <v>995.2697996207771</v>
+        <v>1074.941814896735</v>
       </c>
       <c r="AC6" t="n">
-        <v>900.2826468149065</v>
+        <v>972.3508767733032</v>
       </c>
       <c r="AD6" t="n">
-        <v>727406.5989668857</v>
+        <v>785635.9852969086</v>
       </c>
       <c r="AE6" t="n">
-        <v>995269.7996207771</v>
+        <v>1074941.814896735</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.667208366762458e-06</v>
+        <v>3.205546663839709e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.518229166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>900282.6468149065</v>
+        <v>972350.8767733031</v>
       </c>
     </row>
     <row r="7">
@@ -10904,28 +10904,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>685.1033489363912</v>
+        <v>743.1621430658219</v>
       </c>
       <c r="AB7" t="n">
-        <v>937.388626641379</v>
+        <v>1016.827230142491</v>
       </c>
       <c r="AC7" t="n">
-        <v>847.9255717479257</v>
+        <v>919.7826664236712</v>
       </c>
       <c r="AD7" t="n">
-        <v>685103.3489363912</v>
+        <v>743162.1430658218</v>
       </c>
       <c r="AE7" t="n">
-        <v>937388.626641379</v>
+        <v>1016827.23014249</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.700944497232065e-06</v>
+        <v>3.270411225842664e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.329427083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>847925.5717479257</v>
+        <v>919782.6664236712</v>
       </c>
     </row>
     <row r="8">
@@ -11010,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>669.3660573657749</v>
+        <v>727.4248514952058</v>
       </c>
       <c r="AB8" t="n">
-        <v>915.8561700341579</v>
+        <v>995.2947735352692</v>
       </c>
       <c r="AC8" t="n">
-        <v>828.448142578305</v>
+        <v>900.3052372540504</v>
       </c>
       <c r="AD8" t="n">
-        <v>669366.0573657749</v>
+        <v>727424.8514952058</v>
       </c>
       <c r="AE8" t="n">
-        <v>915856.1700341579</v>
+        <v>995294.7735352692</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.711474850095411e-06</v>
+        <v>3.290657967739541e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.2724609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>828448.142578305</v>
+        <v>900305.2372540504</v>
       </c>
     </row>
     <row r="9">
@@ -11116,28 +11116,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>672.6775686016032</v>
+        <v>730.7363627310339</v>
       </c>
       <c r="AB9" t="n">
-        <v>920.3871258005828</v>
+        <v>999.8257293016941</v>
       </c>
       <c r="AC9" t="n">
-        <v>832.5466702856188</v>
+        <v>904.4037649613642</v>
       </c>
       <c r="AD9" t="n">
-        <v>672677.5686016032</v>
+        <v>730736.3627310338</v>
       </c>
       <c r="AE9" t="n">
-        <v>920387.1258005828</v>
+        <v>999825.7293016941</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.710694823957385e-06</v>
+        <v>3.289158209080513e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.27734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>832546.6702856187</v>
+        <v>904403.7649613642</v>
       </c>
     </row>
   </sheetData>
@@ -11413,28 +11413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2659.029062024686</v>
+        <v>2767.864850487563</v>
       </c>
       <c r="AB2" t="n">
-        <v>3638.200870745411</v>
+        <v>3787.114798016442</v>
       </c>
       <c r="AC2" t="n">
-        <v>3290.976085888324</v>
+        <v>3425.677876942612</v>
       </c>
       <c r="AD2" t="n">
-        <v>2659029.062024686</v>
+        <v>2767864.850487563</v>
       </c>
       <c r="AE2" t="n">
-        <v>3638200.870745411</v>
+        <v>3787114.798016442</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.053198498005721e-07</v>
+        <v>1.500249799547492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.02180989583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3290976.085888324</v>
+        <v>3425677.876942612</v>
       </c>
     </row>
     <row r="3">
@@ -11519,28 +11519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1307.844717694584</v>
+        <v>1380.31659898478</v>
       </c>
       <c r="AB3" t="n">
-        <v>1789.450840786551</v>
+        <v>1888.610066001551</v>
       </c>
       <c r="AC3" t="n">
-        <v>1618.668164051911</v>
+        <v>1708.363771983238</v>
       </c>
       <c r="AD3" t="n">
-        <v>1307844.717694584</v>
+        <v>1380316.59898478</v>
       </c>
       <c r="AE3" t="n">
-        <v>1789450.840786551</v>
+        <v>1888610.066001551</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240495610637062e-06</v>
+        <v>2.310949235460499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.3486328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1618668.164051911</v>
+        <v>1708363.771983238</v>
       </c>
     </row>
     <row r="4">
@@ -11625,28 +11625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1056.728792739874</v>
+        <v>1129.200584521519</v>
       </c>
       <c r="AB4" t="n">
-        <v>1445.862953810786</v>
+        <v>1545.022056556238</v>
       </c>
       <c r="AC4" t="n">
-        <v>1307.871822780485</v>
+        <v>1397.567319930586</v>
       </c>
       <c r="AD4" t="n">
-        <v>1056728.792739874</v>
+        <v>1129200.584521519</v>
       </c>
       <c r="AE4" t="n">
-        <v>1445862.953810786</v>
+        <v>1545022.056556238</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.407262792341703e-06</v>
+        <v>2.621623846281834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1307871.822780485</v>
+        <v>1397567.319930586</v>
       </c>
     </row>
     <row r="5">
@@ -11731,28 +11731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>955.277420449532</v>
+        <v>1015.656446300359</v>
       </c>
       <c r="AB5" t="n">
-        <v>1307.052710524476</v>
+        <v>1389.665957428201</v>
       </c>
       <c r="AC5" t="n">
-        <v>1182.30943429202</v>
+        <v>1257.038188859674</v>
       </c>
       <c r="AD5" t="n">
-        <v>955277.420449532</v>
+        <v>1015656.446300359</v>
       </c>
       <c r="AE5" t="n">
-        <v>1307052.710524476</v>
+        <v>1389665.957428201</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.496951914330712e-06</v>
+        <v>2.788707877948161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.23274739583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1182309.43429202</v>
+        <v>1257038.188859674</v>
       </c>
     </row>
     <row r="6">
@@ -11837,28 +11837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>882.7299666344722</v>
+        <v>943.1942438313201</v>
       </c>
       <c r="AB6" t="n">
-        <v>1207.790083646933</v>
+        <v>1290.519975203308</v>
       </c>
       <c r="AC6" t="n">
-        <v>1092.520293207699</v>
+        <v>1167.354560026065</v>
       </c>
       <c r="AD6" t="n">
-        <v>882729.9666344723</v>
+        <v>943194.2438313201</v>
       </c>
       <c r="AE6" t="n">
-        <v>1207790.083646934</v>
+        <v>1290519.975203308</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.552478233295575e-06</v>
+        <v>2.892149198706957e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.866536458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1092520.293207699</v>
+        <v>1167354.560026065</v>
       </c>
     </row>
     <row r="7">
@@ -11943,28 +11943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>840.2864975991661</v>
+        <v>900.7507747960138</v>
       </c>
       <c r="AB7" t="n">
-        <v>1149.717056839126</v>
+        <v>1232.446948395501</v>
       </c>
       <c r="AC7" t="n">
-        <v>1039.989674572423</v>
+        <v>1114.82394139079</v>
       </c>
       <c r="AD7" t="n">
-        <v>840286.4975991661</v>
+        <v>900750.7747960138</v>
       </c>
       <c r="AE7" t="n">
-        <v>1149717.056839126</v>
+        <v>1232446.948395501</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.5891820712554e-06</v>
+        <v>2.960525664971246e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.638671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1039989.674572423</v>
+        <v>1114823.94139079</v>
       </c>
     </row>
     <row r="8">
@@ -12049,28 +12049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>802.9419060891956</v>
+        <v>863.2355910854512</v>
       </c>
       <c r="AB8" t="n">
-        <v>1098.620539208084</v>
+        <v>1181.117018989612</v>
       </c>
       <c r="AC8" t="n">
-        <v>993.7697368696748</v>
+        <v>1068.39286840539</v>
       </c>
       <c r="AD8" t="n">
-        <v>802941.9060891956</v>
+        <v>863235.5910854512</v>
       </c>
       <c r="AE8" t="n">
-        <v>1098620.539208084</v>
+        <v>1181117.018989612</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.618733366433311e-06</v>
+        <v>3.015577486527623e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.462890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>993769.7368696749</v>
+        <v>1068392.86840539</v>
       </c>
     </row>
     <row r="9">
@@ -12155,28 +12155,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>772.6728149273796</v>
+        <v>832.9664999236351</v>
       </c>
       <c r="AB9" t="n">
-        <v>1057.205033302432</v>
+        <v>1139.701513083959</v>
       </c>
       <c r="AC9" t="n">
-        <v>956.3068687206301</v>
+        <v>1030.930000256345</v>
       </c>
       <c r="AD9" t="n">
-        <v>772672.8149273796</v>
+        <v>832966.499923635</v>
       </c>
       <c r="AE9" t="n">
-        <v>1057205.033302431</v>
+        <v>1139701.513083959</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.639343983133828e-06</v>
+        <v>3.053973502199108e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.344075520833334</v>
       </c>
       <c r="AH9" t="n">
-        <v>956306.8687206301</v>
+        <v>1030930.000256345</v>
       </c>
     </row>
     <row r="10">
@@ -12261,28 +12261,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>745.394736376005</v>
+        <v>805.6884213722607</v>
       </c>
       <c r="AB10" t="n">
-        <v>1019.881962804548</v>
+        <v>1102.378442586076</v>
       </c>
       <c r="AC10" t="n">
-        <v>922.5458596878066</v>
+        <v>997.1689912235217</v>
       </c>
       <c r="AD10" t="n">
-        <v>745394.736376005</v>
+        <v>805688.4213722607</v>
       </c>
       <c r="AE10" t="n">
-        <v>1019881.962804548</v>
+        <v>1102378.442586076</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656378328443388e-06</v>
+        <v>3.085707195516637e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.248046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>922545.8596878066</v>
+        <v>997168.9912235218</v>
       </c>
     </row>
     <row r="11">
@@ -12367,28 +12367,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>737.1914739660268</v>
+        <v>785.5629852320561</v>
       </c>
       <c r="AB11" t="n">
-        <v>1008.657897272821</v>
+        <v>1074.841932987469</v>
       </c>
       <c r="AC11" t="n">
-        <v>912.393003217352</v>
+        <v>972.2605274532716</v>
       </c>
       <c r="AD11" t="n">
-        <v>737191.4739660268</v>
+        <v>785562.9852320561</v>
       </c>
       <c r="AE11" t="n">
-        <v>1008657.897272821</v>
+        <v>1074841.932987469</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.65986048742932e-06</v>
+        <v>3.092194193598121e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.228515625</v>
       </c>
       <c r="AH11" t="n">
-        <v>912393.003217352</v>
+        <v>972260.5274532716</v>
       </c>
     </row>
     <row r="12">
@@ -12473,28 +12473,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>738.5788320072711</v>
+        <v>786.9503432733004</v>
       </c>
       <c r="AB12" t="n">
-        <v>1010.556141750768</v>
+        <v>1076.740177465416</v>
       </c>
       <c r="AC12" t="n">
-        <v>914.1100819065269</v>
+        <v>973.9776061424465</v>
       </c>
       <c r="AD12" t="n">
-        <v>738578.8320072711</v>
+        <v>786950.3432733004</v>
       </c>
       <c r="AE12" t="n">
-        <v>1010556.141750768</v>
+        <v>1076740.177465416</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.662119185149924e-06</v>
+        <v>3.096401976137462e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.215494791666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>914110.0819065269</v>
+        <v>973977.6061424465</v>
       </c>
     </row>
   </sheetData>
@@ -12770,28 +12770,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1241.557550034437</v>
+        <v>1319.4009344582</v>
       </c>
       <c r="AB2" t="n">
-        <v>1698.753813610494</v>
+        <v>1805.262566386833</v>
       </c>
       <c r="AC2" t="n">
-        <v>1536.62713385546</v>
+        <v>1632.970840752799</v>
       </c>
       <c r="AD2" t="n">
-        <v>1241557.550034437</v>
+        <v>1319400.9344582</v>
       </c>
       <c r="AE2" t="n">
-        <v>1698753.813610494</v>
+        <v>1805262.566386834</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.210073962627025e-06</v>
+        <v>2.425590057397113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69466145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1536627.13385546</v>
+        <v>1632970.840752799</v>
       </c>
     </row>
     <row r="3">
@@ -12876,28 +12876,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>793.3021453014044</v>
+        <v>859.939705381487</v>
       </c>
       <c r="AB3" t="n">
-        <v>1085.430993221997</v>
+        <v>1176.607442765233</v>
       </c>
       <c r="AC3" t="n">
-        <v>981.8389826408555</v>
+        <v>1064.313679806636</v>
       </c>
       <c r="AD3" t="n">
-        <v>793302.1453014044</v>
+        <v>859939.705381487</v>
       </c>
       <c r="AE3" t="n">
-        <v>1085430.993221997</v>
+        <v>1176607.442765233</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.565307286615724e-06</v>
+        <v>3.137654315727658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>981838.9826408555</v>
+        <v>1064313.679806636</v>
       </c>
     </row>
     <row r="4">
@@ -12982,28 +12982,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>670.5403430977283</v>
+        <v>726.1427605432737</v>
       </c>
       <c r="AB4" t="n">
-        <v>917.4628795784465</v>
+        <v>993.5405601329746</v>
       </c>
       <c r="AC4" t="n">
-        <v>829.9015100187177</v>
+        <v>898.7184435168169</v>
       </c>
       <c r="AD4" t="n">
-        <v>670540.3430977283</v>
+        <v>726142.7605432736</v>
       </c>
       <c r="AE4" t="n">
-        <v>917462.8795784465</v>
+        <v>993540.5601329746</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.695223515165332e-06</v>
+        <v>3.398071052222291e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.775390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>829901.5100187176</v>
+        <v>898718.4435168169</v>
       </c>
     </row>
     <row r="5">
@@ -13088,28 +13088,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>608.4967788692356</v>
+        <v>663.9286041141886</v>
       </c>
       <c r="AB5" t="n">
-        <v>832.5721378321487</v>
+        <v>908.41640661183</v>
       </c>
       <c r="AC5" t="n">
-        <v>753.1126215197822</v>
+        <v>821.7184197352306</v>
       </c>
       <c r="AD5" t="n">
-        <v>608496.7788692357</v>
+        <v>663928.6041141886</v>
       </c>
       <c r="AE5" t="n">
-        <v>832572.1378321487</v>
+        <v>908416.40661183</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.760487075118543e-06</v>
+        <v>3.528891685524062e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.412434895833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>753112.6215197822</v>
+        <v>821718.4197352305</v>
       </c>
     </row>
     <row r="6">
@@ -13194,28 +13194,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>603.1284054626336</v>
+        <v>658.5602307075866</v>
       </c>
       <c r="AB6" t="n">
-        <v>825.2268925013162</v>
+        <v>901.0711612809973</v>
       </c>
       <c r="AC6" t="n">
-        <v>746.4683960942077</v>
+        <v>815.0741943096559</v>
       </c>
       <c r="AD6" t="n">
-        <v>603128.4054626336</v>
+        <v>658560.2307075866</v>
       </c>
       <c r="AE6" t="n">
-        <v>825226.8925013163</v>
+        <v>901071.1612809973</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.766901434365115e-06</v>
+        <v>3.541749251667606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.378255208333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>746468.3960942078</v>
+        <v>815074.1943096559</v>
       </c>
     </row>
   </sheetData>
@@ -13491,28 +13491,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>895.5061235805974</v>
+        <v>959.2923662758091</v>
       </c>
       <c r="AB2" t="n">
-        <v>1225.270985224886</v>
+        <v>1312.546136530897</v>
       </c>
       <c r="AC2" t="n">
-        <v>1108.332842073651</v>
+        <v>1187.27857543046</v>
       </c>
       <c r="AD2" t="n">
-        <v>895506.1235805975</v>
+        <v>959292.366275809</v>
       </c>
       <c r="AE2" t="n">
-        <v>1225270.985224886</v>
+        <v>1312546.136530897</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.418734055949952e-06</v>
+        <v>2.968080369719844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.16634114583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1108332.842073651</v>
+        <v>1187278.57543046</v>
       </c>
     </row>
     <row r="3">
@@ -13597,28 +13597,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.787128798726</v>
+        <v>669.4879411308151</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.8646750643533</v>
+        <v>916.022936778618</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.7589937950885</v>
+        <v>828.5989933387323</v>
       </c>
       <c r="AD3" t="n">
-        <v>605787.128798726</v>
+        <v>669487.9411308151</v>
       </c>
       <c r="AE3" t="n">
-        <v>828864.6750643533</v>
+        <v>916022.936778618</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.730543738576314e-06</v>
+        <v>3.620405725702227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>749758.9937950885</v>
+        <v>828598.9933387323</v>
       </c>
     </row>
     <row r="4">
@@ -13703,28 +13703,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>546.5511757106577</v>
+        <v>599.7774207450179</v>
       </c>
       <c r="AB4" t="n">
-        <v>747.8154307434461</v>
+        <v>820.6419273756625</v>
       </c>
       <c r="AC4" t="n">
-        <v>676.4449755988397</v>
+        <v>742.3210136051074</v>
       </c>
       <c r="AD4" t="n">
-        <v>546551.1757106577</v>
+        <v>599777.4207450179</v>
       </c>
       <c r="AE4" t="n">
-        <v>747815.4307434461</v>
+        <v>820641.9273756625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.807753755226652e-06</v>
+        <v>3.781933909088342e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.549153645833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>676444.9755988397</v>
+        <v>742321.0136051074</v>
       </c>
     </row>
     <row r="5">
@@ -13809,28 +13809,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>550.3667332603335</v>
+        <v>603.5929782946937</v>
       </c>
       <c r="AB5" t="n">
-        <v>753.0360449134312</v>
+        <v>825.8625415456479</v>
       </c>
       <c r="AC5" t="n">
-        <v>681.1673416796198</v>
+        <v>747.0433796858877</v>
       </c>
       <c r="AD5" t="n">
-        <v>550366.7332603335</v>
+        <v>603592.9782946937</v>
       </c>
       <c r="AE5" t="n">
-        <v>753036.0449134312</v>
+        <v>825862.5415456479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.807117408935578e-06</v>
+        <v>3.780602632851643e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.552408854166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>681167.3416796197</v>
+        <v>747043.3796858876</v>
       </c>
     </row>
   </sheetData>
@@ -24991,28 +24991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>682.8328594751109</v>
+        <v>734.1598749981317</v>
       </c>
       <c r="AB2" t="n">
-        <v>934.2820427935297</v>
+        <v>1004.509929820239</v>
       </c>
       <c r="AC2" t="n">
-        <v>845.1154759023974</v>
+        <v>908.6409119567363</v>
       </c>
       <c r="AD2" t="n">
-        <v>682832.8594751109</v>
+        <v>734159.8749981318</v>
       </c>
       <c r="AE2" t="n">
-        <v>934282.0427935297</v>
+        <v>1004509.929820239</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.593344810605369e-06</v>
+        <v>3.463701809905909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.2060546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>845115.4759023974</v>
+        <v>908640.9119567364</v>
       </c>
     </row>
     <row r="3">
@@ -25097,28 +25097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.1182021131301</v>
+        <v>557.4451281276001</v>
       </c>
       <c r="AB3" t="n">
-        <v>692.4932524904061</v>
+        <v>762.7210170475676</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.4026683931053</v>
+        <v>689.9279936662176</v>
       </c>
       <c r="AD3" t="n">
-        <v>506118.2021131301</v>
+        <v>557445.1281276002</v>
       </c>
       <c r="AE3" t="n">
-        <v>692493.2524904062</v>
+        <v>762721.0170475675</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.827798977118051e-06</v>
+        <v>3.973371352546475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.768880208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>626402.6683931053</v>
+        <v>689927.9936662177</v>
       </c>
     </row>
     <row r="4">
@@ -25203,28 +25203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.4232685154001</v>
+        <v>560.7501945298701</v>
       </c>
       <c r="AB4" t="n">
-        <v>697.0153901512309</v>
+        <v>767.2431547083922</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.4932195824409</v>
+        <v>694.0185448555534</v>
       </c>
       <c r="AD4" t="n">
-        <v>509423.2685154001</v>
+        <v>560750.1945298701</v>
       </c>
       <c r="AE4" t="n">
-        <v>697015.390151231</v>
+        <v>767243.1547083922</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.829444654468397e-06</v>
+        <v>3.976948817749848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.7607421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>630493.2195824409</v>
+        <v>694018.5448555534</v>
       </c>
     </row>
   </sheetData>
@@ -25500,28 +25500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>444.3188727511568</v>
+        <v>501.3077959428286</v>
       </c>
       <c r="AB2" t="n">
-        <v>607.9366836633621</v>
+        <v>685.9114425480573</v>
       </c>
       <c r="AC2" t="n">
-        <v>549.9160598190246</v>
+        <v>620.4490171540258</v>
       </c>
       <c r="AD2" t="n">
-        <v>444318.8727511568</v>
+        <v>501307.7959428286</v>
       </c>
       <c r="AE2" t="n">
-        <v>607936.6836633622</v>
+        <v>685911.4425480573</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.788333859142237e-06</v>
+        <v>4.253600303751073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.7177734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>549916.0598190245</v>
+        <v>620449.0171540258</v>
       </c>
     </row>
   </sheetData>
@@ -25797,28 +25797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1670.078727297411</v>
+        <v>1762.094185506048</v>
       </c>
       <c r="AB2" t="n">
-        <v>2285.075393361786</v>
+        <v>2410.975002718358</v>
       </c>
       <c r="AC2" t="n">
-        <v>2066.991004942794</v>
+        <v>2180.874932283587</v>
       </c>
       <c r="AD2" t="n">
-        <v>1670078.727297411</v>
+        <v>1762094.185506047</v>
       </c>
       <c r="AE2" t="n">
-        <v>2285075.393361786</v>
+        <v>2410975.002718358</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.038731496650821e-06</v>
+        <v>2.015739692848218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2066991.004942794</v>
+        <v>2180874.932283586</v>
       </c>
     </row>
     <row r="3">
@@ -25903,28 +25903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>978.3884848668058</v>
+        <v>1036.004855881125</v>
       </c>
       <c r="AB3" t="n">
-        <v>1338.674288448393</v>
+        <v>1417.507549125078</v>
       </c>
       <c r="AC3" t="n">
-        <v>1210.913093200042</v>
+        <v>1282.22261812092</v>
       </c>
       <c r="AD3" t="n">
-        <v>978388.4848668058</v>
+        <v>1036004.855881125</v>
       </c>
       <c r="AE3" t="n">
-        <v>1338674.288448393</v>
+        <v>1417507.549125078</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.430570008707478e-06</v>
+        <v>2.776132965302054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.20442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1210913.093200042</v>
+        <v>1282222.61812092</v>
       </c>
     </row>
     <row r="4">
@@ -26009,28 +26009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>822.821343687314</v>
+        <v>880.352373847061</v>
       </c>
       <c r="AB4" t="n">
-        <v>1125.820462748719</v>
+        <v>1204.536956303207</v>
       </c>
       <c r="AC4" t="n">
-        <v>1018.373737882924</v>
+        <v>1089.577639771864</v>
       </c>
       <c r="AD4" t="n">
-        <v>822821.343687314</v>
+        <v>880352.3738470611</v>
       </c>
       <c r="AE4" t="n">
-        <v>1125820.462748719</v>
+        <v>1204536.956303207</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.575133702022173e-06</v>
+        <v>3.056670116335537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.17578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1018373.737882924</v>
+        <v>1089577.639771864</v>
       </c>
     </row>
     <row r="5">
@@ -26115,28 +26115,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>737.3337132116337</v>
+        <v>794.9499947174015</v>
       </c>
       <c r="AB5" t="n">
-        <v>1008.852515283813</v>
+        <v>1087.685653490949</v>
       </c>
       <c r="AC5" t="n">
-        <v>912.5690471585228</v>
+        <v>983.878461298175</v>
       </c>
       <c r="AD5" t="n">
-        <v>737333.7132116337</v>
+        <v>794949.9947174016</v>
       </c>
       <c r="AE5" t="n">
-        <v>1008852.515283813</v>
+        <v>1087685.653490949</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.651945473674395e-06</v>
+        <v>3.205729365522265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.7021484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>912569.0471585229</v>
+        <v>983878.461298175</v>
       </c>
     </row>
     <row r="6">
@@ -26221,28 +26221,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>686.0524439095101</v>
+        <v>743.4981332146855</v>
       </c>
       <c r="AB6" t="n">
-        <v>938.6872202547153</v>
+        <v>1017.286946687005</v>
       </c>
       <c r="AC6" t="n">
-        <v>849.1002294093926</v>
+        <v>920.1985082663934</v>
       </c>
       <c r="AD6" t="n">
-        <v>686052.44390951</v>
+        <v>743498.1332146855</v>
       </c>
       <c r="AE6" t="n">
-        <v>938687.2202547153</v>
+        <v>1017286.946687005</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699214256229609e-06</v>
+        <v>3.29745813425256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.431966145833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>849100.2294093926</v>
+        <v>920198.5082663934</v>
       </c>
     </row>
     <row r="7">
@@ -26327,28 +26327,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>654.9811582764462</v>
+        <v>712.4268475816218</v>
       </c>
       <c r="AB7" t="n">
-        <v>896.1741164831792</v>
+        <v>974.7738429154691</v>
       </c>
       <c r="AC7" t="n">
-        <v>810.6445165942961</v>
+        <v>881.742795451297</v>
       </c>
       <c r="AD7" t="n">
-        <v>654981.1582764462</v>
+        <v>712426.8475816218</v>
       </c>
       <c r="AE7" t="n">
-        <v>896174.1164831792</v>
+        <v>974773.8429154691</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.722553217616246e-06</v>
+        <v>3.342749213813143e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.305013020833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>810644.5165942961</v>
+        <v>881742.795451297</v>
       </c>
     </row>
     <row r="8">
@@ -26433,28 +26433,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>653.8736282564535</v>
+        <v>711.3193175616291</v>
       </c>
       <c r="AB8" t="n">
-        <v>894.6587450490491</v>
+        <v>973.258471481339</v>
       </c>
       <c r="AC8" t="n">
-        <v>809.2737700830023</v>
+        <v>880.3720489400032</v>
       </c>
       <c r="AD8" t="n">
-        <v>653873.6282564534</v>
+        <v>711319.3175616291</v>
       </c>
       <c r="AE8" t="n">
-        <v>894658.7450490491</v>
+        <v>973258.4714813391</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.72678771272015e-06</v>
+        <v>3.350966582678565e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.2822265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>809273.7700830023</v>
+        <v>880372.0489400032</v>
       </c>
     </row>
   </sheetData>
@@ -26730,28 +26730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2427.337770713848</v>
+        <v>2535.133995704949</v>
       </c>
       <c r="AB2" t="n">
-        <v>3321.19062447553</v>
+        <v>3468.682175142172</v>
       </c>
       <c r="AC2" t="n">
-        <v>3004.220852595777</v>
+        <v>3137.63601667248</v>
       </c>
       <c r="AD2" t="n">
-        <v>2427337.770713848</v>
+        <v>2535133.995704949</v>
       </c>
       <c r="AE2" t="n">
-        <v>3321190.624475529</v>
+        <v>3468682.175142172</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.47129581372209e-07</v>
+        <v>1.58954736364978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.23079427083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3004220.852595777</v>
+        <v>3137636.01667248</v>
       </c>
     </row>
     <row r="3">
@@ -26836,28 +26836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1238.90903654508</v>
+        <v>1310.744769423806</v>
       </c>
       <c r="AB3" t="n">
-        <v>1695.130000610187</v>
+        <v>1793.418819503726</v>
       </c>
       <c r="AC3" t="n">
-        <v>1533.349172481848</v>
+        <v>1622.257444449412</v>
       </c>
       <c r="AD3" t="n">
-        <v>1238909.03654508</v>
+        <v>1310744.769423806</v>
       </c>
       <c r="AE3" t="n">
-        <v>1695130.000610187</v>
+        <v>1793418.819503726</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.276720218189952e-06</v>
+        <v>2.395627896330697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.09798177083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1533349.172481848</v>
+        <v>1622257.444449412</v>
       </c>
     </row>
     <row r="4">
@@ -26942,28 +26942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1008.494806576806</v>
+        <v>1080.330449946981</v>
       </c>
       <c r="AB4" t="n">
-        <v>1379.867086009189</v>
+        <v>1478.15578243318</v>
       </c>
       <c r="AC4" t="n">
-        <v>1248.174507976091</v>
+        <v>1337.082669162427</v>
       </c>
       <c r="AD4" t="n">
-        <v>1008494.806576806</v>
+        <v>1080330.449946981</v>
       </c>
       <c r="AE4" t="n">
-        <v>1379867.086009189</v>
+        <v>1478155.78243318</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.438991035278165e-06</v>
+        <v>2.700111596548141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.732421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1248174.507976091</v>
+        <v>1337082.669162427</v>
       </c>
     </row>
     <row r="5">
@@ -27048,28 +27048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>915.9866574921533</v>
+        <v>975.8355596667551</v>
       </c>
       <c r="AB5" t="n">
-        <v>1253.293355260065</v>
+        <v>1335.181263562573</v>
       </c>
       <c r="AC5" t="n">
-        <v>1133.680796442315</v>
+        <v>1207.753437706833</v>
       </c>
       <c r="AD5" t="n">
-        <v>915986.6574921533</v>
+        <v>975835.5596667551</v>
       </c>
       <c r="AE5" t="n">
-        <v>1253293.355260065</v>
+        <v>1335181.263562573</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52392225240913e-06</v>
+        <v>2.859475872392944e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.13509114583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1133680.796442315</v>
+        <v>1207753.437706833</v>
       </c>
     </row>
     <row r="6">
@@ -27154,28 +27154,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>845.2327641489692</v>
+        <v>905.1669176695915</v>
       </c>
       <c r="AB6" t="n">
-        <v>1156.484756946446</v>
+        <v>1238.489309901603</v>
       </c>
       <c r="AC6" t="n">
-        <v>1046.111474880028</v>
+        <v>1120.289628395257</v>
       </c>
       <c r="AD6" t="n">
-        <v>845232.7641489692</v>
+        <v>905166.9176695915</v>
       </c>
       <c r="AE6" t="n">
-        <v>1156484.756946446</v>
+        <v>1238489.309901603</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.578581896059896e-06</v>
+        <v>2.962038802992504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.783528645833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1046111.474880027</v>
+        <v>1120289.628395257</v>
       </c>
     </row>
     <row r="7">
@@ -27260,28 +27260,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>801.2317212538007</v>
+        <v>861.1658747744231</v>
       </c>
       <c r="AB7" t="n">
-        <v>1096.280588868267</v>
+        <v>1178.285141823424</v>
       </c>
       <c r="AC7" t="n">
-        <v>991.6531081061488</v>
+        <v>1065.831261621378</v>
       </c>
       <c r="AD7" t="n">
-        <v>801231.7212538008</v>
+        <v>861165.8747744231</v>
       </c>
       <c r="AE7" t="n">
-        <v>1096280.588868267</v>
+        <v>1178285.141823424</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.616634877143156e-06</v>
+        <v>3.033441120996711e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.554036458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>991653.1081061488</v>
+        <v>1065831.261621378</v>
       </c>
     </row>
     <row r="8">
@@ -27366,28 +27366,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>766.9729970558254</v>
+        <v>826.7365583758555</v>
       </c>
       <c r="AB8" t="n">
-        <v>1049.406291032353</v>
+        <v>1131.177432212663</v>
       </c>
       <c r="AC8" t="n">
-        <v>949.2524274672049</v>
+        <v>1023.219445699784</v>
       </c>
       <c r="AD8" t="n">
-        <v>766972.9970558254</v>
+        <v>826736.5583758554</v>
       </c>
       <c r="AE8" t="n">
-        <v>1049406.291032353</v>
+        <v>1131177.432212663</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.64206679467511e-06</v>
+        <v>3.081161373428451e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.405924479166666</v>
       </c>
       <c r="AH8" t="n">
-        <v>949252.427467205</v>
+        <v>1023219.445699784</v>
       </c>
     </row>
     <row r="9">
@@ -27472,28 +27472,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>735.689125545372</v>
+        <v>795.4526868654024</v>
       </c>
       <c r="AB9" t="n">
-        <v>1006.602317884746</v>
+        <v>1088.373459065056</v>
       </c>
       <c r="AC9" t="n">
-        <v>910.5336054410517</v>
+        <v>984.5006236736302</v>
       </c>
       <c r="AD9" t="n">
-        <v>735689.125545372</v>
+        <v>795452.6868654024</v>
       </c>
       <c r="AE9" t="n">
-        <v>1006602.317884746</v>
+        <v>1088373.459065056</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.663323322761519e-06</v>
+        <v>3.121046957550502e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.285481770833334</v>
       </c>
       <c r="AH9" t="n">
-        <v>910533.6054410517</v>
+        <v>984500.6236736302</v>
       </c>
     </row>
     <row r="10">
@@ -27578,28 +27578,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>721.0381876628667</v>
+        <v>768.9855999879157</v>
       </c>
       <c r="AB10" t="n">
-        <v>986.5562583201402</v>
+        <v>1052.160023153814</v>
       </c>
       <c r="AC10" t="n">
-        <v>892.4007136664703</v>
+        <v>951.7433472598807</v>
       </c>
       <c r="AD10" t="n">
-        <v>721038.1876628667</v>
+        <v>768985.5999879157</v>
       </c>
       <c r="AE10" t="n">
-        <v>986556.2583201402</v>
+        <v>1052160.023153814</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.673192425087352e-06</v>
+        <v>3.139565264464312e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.231770833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>892400.7136664704</v>
+        <v>951743.3472598807</v>
       </c>
     </row>
     <row r="11">
@@ -27684,28 +27684,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>723.9798649777219</v>
+        <v>771.9272773027711</v>
       </c>
       <c r="AB11" t="n">
-        <v>990.5811909999692</v>
+        <v>1056.184955833643</v>
       </c>
       <c r="AC11" t="n">
-        <v>896.0415124203649</v>
+        <v>955.3841460137753</v>
       </c>
       <c r="AD11" t="n">
-        <v>723979.8649777219</v>
+        <v>771927.2773027711</v>
       </c>
       <c r="AE11" t="n">
-        <v>990581.1909999691</v>
+        <v>1056184.955833643</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.672812844228666e-06</v>
+        <v>3.138853021890704e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.2333984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>896041.5124203649</v>
+        <v>955384.1460137753</v>
       </c>
     </row>
   </sheetData>
@@ -27981,28 +27981,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.5667952177242</v>
+        <v>479.5279529971245</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.9110197819592</v>
+        <v>656.1113005708883</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.4696873677054</v>
+        <v>593.4929589023958</v>
       </c>
       <c r="AD2" t="n">
-        <v>424566.7952177242</v>
+        <v>479527.9529971245</v>
       </c>
       <c r="AE2" t="n">
-        <v>580911.0197819592</v>
+        <v>656111.3005708882</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685138821692609e-06</v>
+        <v>4.214404308657245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.77734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>525469.6873677054</v>
+        <v>593492.9589023958</v>
       </c>
     </row>
   </sheetData>
@@ -28278,28 +28278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1001.610219554997</v>
+        <v>1077.222507520826</v>
       </c>
       <c r="AB2" t="n">
-        <v>1370.447290319407</v>
+        <v>1473.903358492972</v>
       </c>
       <c r="AC2" t="n">
-        <v>1239.653724366174</v>
+        <v>1333.236090594758</v>
       </c>
       <c r="AD2" t="n">
-        <v>1001610.219554997</v>
+        <v>1077222.507520826</v>
       </c>
       <c r="AE2" t="n">
-        <v>1370447.290319407</v>
+        <v>1473903.358492972</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.343604171109534e-06</v>
+        <v>2.766861843825778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65950520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1239653.724366174</v>
+        <v>1333236.090594758</v>
       </c>
     </row>
     <row r="3">
@@ -28384,28 +28384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>675.9345521647157</v>
+        <v>729.9190356904098</v>
       </c>
       <c r="AB3" t="n">
-        <v>924.8434743996073</v>
+        <v>998.7074263867883</v>
       </c>
       <c r="AC3" t="n">
-        <v>836.577711228877</v>
+        <v>903.392191307109</v>
       </c>
       <c r="AD3" t="n">
-        <v>675934.5521647157</v>
+        <v>729919.0356904098</v>
       </c>
       <c r="AE3" t="n">
-        <v>924843.4743996073</v>
+        <v>998707.4263867883</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.672502920835865e-06</v>
+        <v>3.444157598533286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.1708984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>836577.711228877</v>
+        <v>903392.191307109</v>
       </c>
     </row>
     <row r="4">
@@ -28490,28 +28490,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>574.7306939218586</v>
+        <v>628.8004287935731</v>
       </c>
       <c r="AB4" t="n">
-        <v>786.3718907526143</v>
+        <v>860.3524873924443</v>
       </c>
       <c r="AC4" t="n">
-        <v>711.3216611790646</v>
+        <v>778.2416535080088</v>
       </c>
       <c r="AD4" t="n">
-        <v>574730.6939218586</v>
+        <v>628800.4287935732</v>
       </c>
       <c r="AE4" t="n">
-        <v>786371.8907526142</v>
+        <v>860352.4873924444</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.783808026796634e-06</v>
+        <v>3.673366362042499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.5361328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>711321.6611790645</v>
+        <v>778241.6535080088</v>
       </c>
     </row>
     <row r="5">
@@ -28596,28 +28596,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>566.9906354038236</v>
+        <v>620.889778074946</v>
       </c>
       <c r="AB5" t="n">
-        <v>775.7816012209566</v>
+        <v>849.5287860859398</v>
       </c>
       <c r="AC5" t="n">
-        <v>701.7420940167436</v>
+        <v>768.4509510630367</v>
       </c>
       <c r="AD5" t="n">
-        <v>566990.6354038236</v>
+        <v>620889.778074946</v>
       </c>
       <c r="AE5" t="n">
-        <v>775781.6012209567</v>
+        <v>849528.7860859398</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.795408840657334e-06</v>
+        <v>3.697255726126558e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.474283854166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>701742.0940167436</v>
+        <v>768450.9510630367</v>
       </c>
     </row>
   </sheetData>
@@ -28893,28 +28893,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1379.357576000182</v>
+        <v>1458.101475955576</v>
       </c>
       <c r="AB2" t="n">
-        <v>1887.297888444915</v>
+        <v>1995.038766299574</v>
       </c>
       <c r="AC2" t="n">
-        <v>1707.176826810955</v>
+        <v>1804.635066498436</v>
       </c>
       <c r="AD2" t="n">
-        <v>1379357.576000181</v>
+        <v>1458101.475955575</v>
       </c>
       <c r="AE2" t="n">
-        <v>1887297.888444915</v>
+        <v>1995038.766299573</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.149209539438291e-06</v>
+        <v>2.276795680644403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1707176.826810955</v>
+        <v>1804635.066498436</v>
       </c>
     </row>
     <row r="3">
@@ -28999,28 +28999,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>849.4425789939964</v>
+        <v>916.9250821120663</v>
       </c>
       <c r="AB3" t="n">
-        <v>1162.244811341336</v>
+        <v>1254.577349225402</v>
       </c>
       <c r="AC3" t="n">
-        <v>1051.321797767756</v>
+        <v>1134.842247825698</v>
       </c>
       <c r="AD3" t="n">
-        <v>849442.5789939965</v>
+        <v>916925.0821120663</v>
       </c>
       <c r="AE3" t="n">
-        <v>1162244.811341336</v>
+        <v>1254577.349225402</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.519198461294048e-06</v>
+        <v>3.009811854160686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.77962239583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1051321.797767756</v>
+        <v>1134842.247825698</v>
       </c>
     </row>
     <row r="4">
@@ -29105,28 +29105,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>718.2908279183188</v>
+        <v>785.687990181817</v>
       </c>
       <c r="AB4" t="n">
-        <v>982.7971995126921</v>
+        <v>1075.012970274561</v>
       </c>
       <c r="AC4" t="n">
-        <v>889.0004141557329</v>
+        <v>972.4152411817356</v>
       </c>
       <c r="AD4" t="n">
-        <v>718290.8279183188</v>
+        <v>785687.990181817</v>
       </c>
       <c r="AE4" t="n">
-        <v>982797.1995126922</v>
+        <v>1075012.970274561</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.653328249935257e-06</v>
+        <v>3.275547660333437e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.905598958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>889000.4141557328</v>
+        <v>972415.2411817356</v>
       </c>
     </row>
     <row r="5">
@@ -29211,28 +29211,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>652.872832269346</v>
+        <v>709.1793689132138</v>
       </c>
       <c r="AB5" t="n">
-        <v>893.2894118274862</v>
+        <v>970.3304993327058</v>
       </c>
       <c r="AC5" t="n">
-        <v>808.0351241022338</v>
+        <v>877.7235183438009</v>
       </c>
       <c r="AD5" t="n">
-        <v>652872.832269346</v>
+        <v>709179.3689132138</v>
       </c>
       <c r="AE5" t="n">
-        <v>893289.4118274862</v>
+        <v>970330.4993327059</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.722355282949412e-06</v>
+        <v>3.41230292142459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.508463541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>808035.1241022338</v>
+        <v>877723.5183438009</v>
       </c>
     </row>
     <row r="6">
@@ -29317,28 +29317,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>618.5951303825677</v>
+        <v>674.7310748258434</v>
       </c>
       <c r="AB6" t="n">
-        <v>846.3891478805165</v>
+        <v>923.1968236108893</v>
       </c>
       <c r="AC6" t="n">
-        <v>765.610955521429</v>
+        <v>835.0882144803451</v>
       </c>
       <c r="AD6" t="n">
-        <v>618595.1303825678</v>
+        <v>674731.0748258434</v>
       </c>
       <c r="AE6" t="n">
-        <v>846389.1478805165</v>
+        <v>923196.8236108893</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.754051369537544e-06</v>
+        <v>3.475098704578691e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.337565104166666</v>
       </c>
       <c r="AH6" t="n">
-        <v>765610.955521429</v>
+        <v>835088.214480345</v>
       </c>
     </row>
     <row r="7">
@@ -29423,28 +29423,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>621.12438503319</v>
+        <v>677.2603294764656</v>
       </c>
       <c r="AB7" t="n">
-        <v>849.8497856763375</v>
+        <v>926.6574614067104</v>
       </c>
       <c r="AC7" t="n">
-        <v>768.7413149030526</v>
+        <v>838.2185738619686</v>
       </c>
       <c r="AD7" t="n">
-        <v>621124.38503319</v>
+        <v>677260.3294764656</v>
       </c>
       <c r="AE7" t="n">
-        <v>849849.7856763375</v>
+        <v>926657.4614067103</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.753145767063598e-06</v>
+        <v>3.473304539345717e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.342447916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>768741.3149030526</v>
+        <v>838218.5738619686</v>
       </c>
     </row>
   </sheetData>
